--- a/src/Excel/AltaDPF.xlsx
+++ b/src/Excel/AltaDPF.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6136B1FC-9E4A-42FE-9B17-5D6C1217463C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA3C4E6-21B8-4BA2-BFE7-6B1D1F0ADA71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="1960" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AltaDPF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>usuario</t>
   </si>
@@ -78,13 +78,20 @@
     <t/>
   </si>
   <si>
-    <t>5 mar. 2023, 20:03:20</t>
+    <t>6 mar. 2023, 12:24:28</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 14:33:31</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 14:38:20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,17 +421,17 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.26953125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -482,7 +489,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
